--- a/recette/EcoWash - 1B.xlsx
+++ b/recette/EcoWash - 1B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\EcoWash\recette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263D5D5-22A6-4796-8035-567637E9B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52862120-CE23-4371-97EA-F51F22CDF83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Composant</t>
-  </si>
-  <si>
-    <t>concG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>density</t>
   </si>
@@ -49,6 +43,36 @@
   </si>
   <si>
     <t>ETOH</t>
+  </si>
+  <si>
+    <t>concL</t>
+  </si>
+  <si>
+    <t>2ETOH</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ComposantsEcoAdd</t>
+  </si>
+  <si>
+    <t>ComposantsSolvant</t>
+  </si>
+  <si>
+    <t>ecoAddH</t>
+  </si>
+  <si>
+    <t>ecoAddA</t>
+  </si>
+  <si>
+    <t>ecoAddS</t>
   </si>
 </sst>
 </file>
@@ -84,8 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,34 +396,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>0.3836</v>
@@ -404,10 +449,22 @@
       <c r="D2">
         <v>1.4274</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I2">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.1885</v>
@@ -418,10 +475,22 @@
       <c r="D3">
         <v>1.5384</v>
       </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.81</v>
+      </c>
+      <c r="I3">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.41860000000000003</v>
@@ -432,10 +501,22 @@
       <c r="D4">
         <v>1.4890000000000001</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>9.1999999999999998E-3</v>
@@ -445,6 +526,18 @@
       </c>
       <c r="D5">
         <v>1.431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0.04</v>
+      </c>
+      <c r="H5">
+        <v>0.04</v>
+      </c>
+      <c r="I5">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
